--- a/app/static/uploadTemplate/学生信息导入模板.xlsx
+++ b/app/static/uploadTemplate/学生信息导入模板.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\zanproject\高校体测数据处理系统\code\app\static\uploadTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE3A202-03E4-4487-B614-D25285669349}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C61A51A-065C-4A67-9B66-22FEB53749DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5325" yWindow="3750" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2595" yWindow="3615" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -472,7 +472,7 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="提示" prompt="如：2018，2019" sqref="B1" xr:uid="{F6094E36-3A99-416C-9BBE-D622FE98037D}"/>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="提示" prompt="请输入男或者女" sqref="E1:E1048576" xr:uid="{60A7D9DC-F31C-402A-A1A4-591B9C1107A0}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="提示" prompt="请输入男或者女" sqref="E1:E1048576" xr:uid="{60A7D9DC-F31C-402A-A1A4-591B9C1107A0}">
       <formula1>"男,女"</formula1>
     </dataValidation>
   </dataValidations>
